--- a/05 Test/STD0103 angivPrimoÅrsomsætningOgProcentstigning.xlsx
+++ b/05 Test/STD0103 angivPrimoÅrsomsætningOgProcentstigning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvi\OneDrive\Dokumenter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BF8B28E-BF57-48D5-A0A8-9F519ADDED2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E40B6-7708-46C2-8BD9-080E1E98B06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="2196" windowWidth="17136" windowHeight="8964" xr2:uid="{6F4A74D5-0B85-4ED2-8521-2E8064A30DFC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{6F4A74D5-0B85-4ED2-8521-2E8064A30DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -60,12 +58,6 @@
   </si>
   <si>
     <t>ST010303</t>
-  </si>
-  <si>
-    <t>NegativBeloebException</t>
-  </si>
-  <si>
-    <t>NegativProcentException</t>
   </si>
 </sst>
 </file>
@@ -135,7 +127,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,7 +143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -450,7 +442,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,8 +481,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3">
-        <f>C2*C3</f>
-        <v>125</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -515,8 +506,8 @@
         <v>-500</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
+      <c r="E5" s="3">
+        <v>-525</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -541,8 +532,8 @@
         <v>2500</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
+      <c r="E8" s="3">
+        <v>2375</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
